--- a/Realme/Others/Shop wise sales report till  November 2021.xlsx
+++ b/Realme/Others/Shop wise sales report till  November 2021.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="RSC" sheetId="6" r:id="rId2"/>
-    <sheet name="GRT" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="RSC" sheetId="6" r:id="rId3"/>
+    <sheet name="GRT" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="184">
   <si>
     <t>Area</t>
   </si>
@@ -944,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1126,6 +1127,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1135,8 +1142,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,9 +1451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="CB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E43" sqref="E43"/>
+      <selection pane="topRight" sqref="A1:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15306,13 +15313,13 @@
       <c r="CI53" s="22"/>
     </row>
     <row r="54" spans="1:87" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="25">
         <f t="shared" ref="F54:CB54" si="0">SUM(F2:F53)</f>
         <v>603</v>
@@ -15637,7 +15644,7 @@
       <c r="CI54" s="34"/>
     </row>
     <row r="55" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="AI55" s="74"/>
+      <c r="AI55" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15649,6 +15656,372 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="30" style="35" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="7">
+        <v>341005752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="7">
+        <v>341005751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="7">
+        <v>341005750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="7">
+        <v>341005749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="7">
+        <v>341004590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="7">
+        <v>341004038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="7">
+        <v>341002648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="7">
+        <v>341002539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="7">
+        <v>341002536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="7">
+        <v>341002458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="7">
+        <v>341002457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="7">
+        <v>341002455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="7">
+        <v>341001680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="7">
+        <v>341001677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="7">
+        <v>341001676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="7">
+        <v>341001674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="7">
+        <v>341001668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="7">
+        <v>341001667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="7">
+        <v>341000601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -15856,10 +16229,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="67">
         <f>SUM(C2:C11)</f>
         <v>630</v>
@@ -15892,7 +16265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -15914,13 +16287,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16445,7 +16818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
